--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Involved Learners (IL)" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,7 +55,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -417,15 +418,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -437,13 +439,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -498,68 +500,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Manoj</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Varad</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9/12/2023</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>LDFDLFJLKS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>KSKFJHOS87789</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -572,13 +526,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -632,58 +586,17 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Manoj</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>something</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7th Jan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>me</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>mango</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>dog</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>neem</t>
-        </is>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -696,85 +609,117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HW 4.10</t>
+          <t>HW 4.10 term 1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HW 4.11</t>
+          <t>HW 4.10 term 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>HW 4.7</t>
+          <t>HW 4.11 term 1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>HW 5.8</t>
+          <t>HW 4.11 term 2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>HW 5.13A</t>
+          <t>HW 4.7 term 1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>HW 5.13a</t>
+          <t>HW 4.7 term 2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>HW 5.16</t>
+          <t>HW 5.8 term 1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>HW 5.17</t>
+          <t>HW 5.8 term 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>HW 5.18a</t>
+          <t>HW 5.13A term 1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>HW 5.18b</t>
+          <t>HW 5.13A term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>HW 5.13a term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HW 5.13a term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>HW 5.16 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>HW 5.16 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>HW 5.17 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>HW 5.17 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>HW 5.18a term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>HW 5.18a term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>HW 5.18b term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>HW 5.18b term 2</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Beginer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -786,85 +731,127 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ECL 15.4</t>
+          <t>ECL 15.4 term 1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ECL 15.5a</t>
+          <t>ECL 15.4 term 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ECL 15.5b</t>
+          <t>ECL 15.5a term 1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ECL 15.5c</t>
+          <t>ECL 15.5a term 2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ECL 15.7</t>
+          <t>ECL 15.5b term 1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ECL 15.8</t>
+          <t>ECL 15.5b term 2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ECL 15.9</t>
+          <t>ECL 15.5c term 1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ECL 2-5.10</t>
+          <t>ECL 15.5c term 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ECL 2-5.12</t>
+          <t>ECL 15.7 term 1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>ECL 2-5.1a</t>
+          <t>ECL 15.7 term 2</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ECL 2-5.2</t>
+          <t>ECL 15.8 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ECL 15.8 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 2</t>
         </is>
       </c>
     </row>
     <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -876,97 +863,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>IL 4.1</t>
+          <t>IL 4.1 term 1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>IL 4.2a</t>
+          <t>IL 4.1 term 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>IL 4.8c</t>
+          <t>IL 4.2a term 1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>IL 4.6</t>
+          <t>IL 4.2a term 2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>IL 4.11</t>
+          <t>IL 4.8c term 1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>IL 4.13</t>
+          <t>IL 4.8c term 2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>IL 4.16</t>
+          <t>IL 4.6 term 1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>IL 4.9</t>
+          <t>IL 4.6 term 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>IL 4.20</t>
+          <t>IL 4.11 term 1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>IL 4.25</t>
+          <t>IL 4.11 term 2</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>IL 4.27</t>
+          <t>IL 4.13 term 1</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>IL 4.29</t>
+          <t>IL 4.13 term 2</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>IL 4.30</t>
+          <t>IL 4.16 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 2</t>
         </is>
       </c>
     </row>
     <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -10,9 +10,11 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="cover_page" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="first_page" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HEALTH &amp; WELLBEING (HW)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Effective Communication (ECL)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Involved Learners (IL)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Image_page" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HEALTH &amp; WELLBEING (HW)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Effective Communication (ECL)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Involved Learners (IL)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="feedback_page" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +429,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="2"/>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -439,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,20 +502,68 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manoj</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Timepass</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07/01/2004</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>KJHISUDI(W987923</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>KJHIHIR987324</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -526,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,16 +637,63 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manoj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manoj</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7th Jan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -609,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,106 +717,39 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HW 4.10 term 1</t>
+          <t>Glimps About Myself</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HW 4.10 term 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>HW 4.11 term 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>HW 4.11 term 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>HW 4.7 term 1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>HW 4.7 term 2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>HW 5.8 term 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>HW 5.8 term 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>HW 5.13A term 1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>HW 5.13A term 2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>HW 5.13a term 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>HW 5.13a term 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>HW 5.16 term 1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>HW 5.16 term 2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>HW 5.17 term 1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>HW 5.17 term 2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>HW 5.18a term 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>HW 5.18a term 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>HW 5.18b term 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>HW 5.18b term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>Glimps About My Family</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>resources/images/212/Family.jpg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>resources/images/212/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>resources/images/456/Family.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>resources/images/456/Me.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -731,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,116 +772,147 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ECL 15.4 term 1</t>
+          <t>HW 4.10 term 1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ECL 15.4 term 2</t>
+          <t>HW 4.10 term 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ECL 15.5a term 1</t>
+          <t>HW 4.11 term 1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ECL 15.5a term 2</t>
+          <t>HW 4.11 term 2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ECL 15.5b term 1</t>
+          <t>HW 4.7 term 1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ECL 15.5b term 2</t>
+          <t>HW 4.7 term 2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ECL 15.5c term 1</t>
+          <t>HW 5.8 term 1</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ECL 15.5c term 2</t>
+          <t>HW 5.8 term 2</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ECL 15.7 term 1</t>
+          <t>HW 5.13A term 1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>ECL 15.7 term 2</t>
+          <t>HW 5.13A term 2</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ECL 15.8 term 1</t>
+          <t>HW 5.13a term 1</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>ECL 15.8 term 2</t>
+          <t>HW 5.13a term 2</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>ECL 15.9 term 1</t>
+          <t>HW 5.16 term 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>ECL 15.9 term 2</t>
+          <t>HW 5.16 term 2</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ECL 2-5.10 term 1</t>
+          <t>HW 5.17 term 1</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>ECL 2-5.10 term 2</t>
+          <t>HW 5.17 term 2</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ECL 2-5.12 term 1</t>
+          <t>HW 5.18a term 1</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>ECL 2-5.12 term 2</t>
+          <t>HW 5.18a term 2</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>ECL 2-5.1a term 1</t>
+          <t>HW 5.18b term 1</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>ECL 2-5.1a term 2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.2 term 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.2 term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>HW 5.18b term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -863,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +935,186 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ECL 15.4 term 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ECL 15.4 term 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ECL 15.5a term 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ECL 15.5a term 2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ECL 15.5b term 1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ECL 15.5b term 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ECL 15.5c term 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ECL 15.5c term 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ECL 15.7 term 1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ECL 15.7 term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ECL 15.8 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ECL 15.8 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>IL 4.1 term 1</t>
         </is>
       </c>
@@ -1003,7 +1244,222 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Activities i enjoyed the most</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Activities that were difficult to do</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Activities i enjoy doing with friends</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>I am Helpful</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>I share things</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>I do tasks/activities together with others</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>My child enjoys participating in</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>My child can be supported for</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>I would also like to mention</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Craft Work</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Puppet making</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <sheet name="feedback_page" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -423,7 +422,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -441,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -504,64 +503,173 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manoj</t>
+          <t>NIkhil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>97/8/2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LJJEOIOW</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>KJWOROIUKLKDJS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Timepass</t>
+          <t>Manoj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>KJHISUDI(W987923</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>KJHIHIR987324</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>89</t>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jooh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ldjlf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>timeme</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JOOOOOt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>timepass</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -576,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +747,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manoj</t>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5'6"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>td</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7th Feb</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Friend</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dog</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Tree</t>
         </is>
       </c>
     </row>
@@ -649,49 +802,25 @@
           <t>Manoj</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mango</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7th Jan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mango</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Pig</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Plant</t>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>resources/images//Family.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>resources/images//Me.png</t>
         </is>
       </c>
     </row>
@@ -706,10 +835,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -729,24 +858,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>resources/images/212/Family.jpg</t>
+          <t>resources/images/12/Family.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>resources/images/212/Me.png</t>
+          <t>resources/images/12/Me.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>resources/images/456/Family.jpg</t>
+          <t>resources/images/112/Family.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>resources/images/456/Me.jpg</t>
+          <t>resources/images/112/Me.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>resources/images/99/Family.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>resources/images/99/Me.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>resources/images/445/Family.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resources/images/445/Me.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>resources/images/123/Family.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>resources/images/123/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>resources/images/454/Family.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>resources/images/454/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>resources/images/3434/Family.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resources/images/3434/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>resources/images/67/Family.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resources/images/67/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>resources/images/36/Family.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resources/images/36/Me.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>resources/images/45/Family.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resources/images/45/Me.jpg</t>
         </is>
       </c>
     </row>
@@ -764,7 +989,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -879,7 +1104,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beginner</t>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
         </is>
       </c>
     </row>
@@ -896,17 +1211,9 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -1050,12 +1357,107 @@
           <t>Beginner</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Beginner</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Beginner</t>
         </is>
@@ -1064,18 +1466,10 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -1104,10 +1498,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1245,6 +1639,21 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Beginner</t>
@@ -1252,31 +1661,120 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Beginner</t>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1300,6 +1798,53 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1311,10 +1856,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1369,47 +1914,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Craft Work</t>
+          <t>Clay work</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Drawing and Painting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Puppet making</t>
+          <t>Clay work</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Always</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mostly</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mostly</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Drawing and Painting</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Numeracy skills</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Discipline by the school is satisfactory</t>
         </is>
       </c>
     </row>
@@ -1455,6 +2000,382 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>07/01/2003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
@@ -428,7 +428,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -440,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -565,16 +564,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07/01/2003</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>07/01/2004</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -672,6 +664,26 @@
           <t>45</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thapa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -684,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,15 +814,6 @@
           <t>Manoj</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -823,6 +826,18 @@
           <t>resources/images//Me.png</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -835,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
@@ -972,6 +987,18 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>resources/images/45/Me.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>resources/images/57/Family.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>resources/images/57/Me.png</t>
         </is>
       </c>
     </row>
@@ -986,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -1198,27 +1225,28 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1231,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,29 +1491,30 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1498,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -1770,34 +1799,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -1844,6 +1846,34 @@
           <t>None</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1856,7 +1886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -2381,6 +2411,53 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -676,14 +676,30 @@
           <t>57</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shubham</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8888</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -696,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,17 +843,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -850,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
@@ -999,6 +1016,18 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>resources/images/57/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>resources/images/89/Family.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resources/images/89/Me.png</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -1225,28 +1254,28 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1259,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,362 +1520,7 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
@@ -1870,10 +1544,365 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1886,7 +1915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -2458,6 +2487,53 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -693,13 +693,26 @@
           <t>8888</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EEEEE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -712,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,18 +856,18 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -867,7 +880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
@@ -1028,6 +1041,18 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>resources/images/89/Me.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>resources/images/22/Family.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>resources/images/22/Me.png</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -1254,28 +1279,28 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1288,7 +1313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,361 +1542,6 @@
       <c r="V2" t="inlineStr">
         <is>
           <t>Beginner</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
     </row>
@@ -1899,10 +1569,365 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1915,7 +1940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -2534,6 +2559,53 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
@@ -428,6 +428,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>yooo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -439,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -705,14 +725,18 @@
           <t>22</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -725,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,18 +880,18 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>resources/images//Family.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resources/images//Me.png</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -880,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
@@ -1055,6 +1079,32 @@
           <t>resources/images/22/Me.png</t>
         </is>
       </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1067,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -1276,627 +1326,6 @@
       <c r="T2" t="inlineStr">
         <is>
           <t>Progressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ECL 15.4 term 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ECL 15.4 term 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ECL 15.5a term 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ECL 15.5a term 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ECL 15.5b term 1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ECL 15.5b term 2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ECL 15.5c term 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ECL 15.5c term 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ECL 15.7 term 1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ECL 15.7 term 2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ECL 15.8 term 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>ECL 15.8 term 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>ECL 15.9 term 1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ECL 15.9 term 2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.10 term 1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.10 term 2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.12 term 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.12 term 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.1a term 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.1a term 2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.2 term 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>ECL 2-5.2 term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>IL 4.1 term 2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>IL 4.2a term 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IL 4.8c term 2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>IL 4.6 term 2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>IL 4.11 term 2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>IL 4.13 term 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>IL 4.16 term 2</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 1</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>IL 4.9 term 2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>IL 4.20 term 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>IL 4.25 term 2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>IL 4.27 term 2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>IL 4.29 term 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>IL 4.30 term 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Proficient</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Beginner</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Progressing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
     </row>
@@ -1924,10 +1353,660 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ECL 15.4 term 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ECL 15.4 term 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ECL 15.5a term 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ECL 15.5a term 2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ECL 15.5b term 1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ECL 15.5b term 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ECL 15.5c term 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ECL 15.5c term 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ECL 15.7 term 1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ECL 15.7 term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ECL 15.8 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ECL 15.8 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ECL 15.9 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.10 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.12 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.1a term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>ECL 2-5.2 term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IL 4.1 term 2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>IL 4.2a term 2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IL 4.8c term 2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>IL 4.6 term 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>IL 4.11 term 2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>IL 4.13 term 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>IL 4.16 term 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IL 4.9 term 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>IL 4.20 term 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IL 4.25 term 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>IL 4.27 term 2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>IL 4.29 term 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>IL 4.30 term 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Progressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
@@ -428,6 +428,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -705,6 +706,18 @@
           <t>22</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -722,13 +735,23 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>goood</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -741,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,17 +919,17 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1105,12 +1128,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>resources/images/1212/Family.png</t>
+          <t>resources/images/56/Family.png</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>resources/images/1212/Me.png</t>
+          <t>resources/images/56/Me.png</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -1338,30 +1361,50 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>Beginner</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1374,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,29 +1656,29 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1648,7 +1691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -2062,36 +2105,51 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>Beginner</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Beginner</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2104,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -2817,6 +2875,53 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Clay work</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Always</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,17 +419,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="15"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -698,7 +695,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EEEEE</t>
+          <t>Thapa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -708,11 +705,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -919,18 +924,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1656,30 +1650,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,14 +419,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="15"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -705,7 +708,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -924,7 +927,18 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1650,7 +1664,30 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
@@ -428,7 +428,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="15"/>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -568,6 +568,17 @@
           <t>07/01/2004</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -713,7 +724,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -721,11 +732,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -890,6 +896,15 @@
           <t>Manoj</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -927,18 +942,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1369,34 +1373,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>Beginner</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-    </row>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="15"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -1657,6 +1659,30 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+    </row>
     <row r="7">
       <c r="M7" t="inlineStr">
         <is>
@@ -1664,30 +1690,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1971,6 +1974,34 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -2119,34 +2150,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-    </row>
+    <row r="15"/>
     <row r="17">
       <c r="H17" t="inlineStr">
         <is>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -778,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,7 +942,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1398,7 +1397,6 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
     </row>
-    <row r="15"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -1427,7 +1425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,7 +1688,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2150,7 +2147,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="17">
       <c r="H17" t="inlineStr">
         <is>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>

--- a/resources/1st.xlsx
+++ b/resources/1st.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
